--- a/src/test/resources/ExcelData/ExcelTestData.xlsx
+++ b/src/test/resources/ExcelData/ExcelTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathe\eclipse-workspace\AskOmDch_Automation\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C997C30F-42CC-46A0-AF25-00F4302F42B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9D5F4-6880-4B22-B043-0EB2C300B2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{63BE966B-1B98-43A6-A29C-04070FF48AC7}"/>
+    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63BE966B-1B98-43A6-A29C-04070FF48AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="MyFirstTestCase" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Blue Shoes</t>
   </si>
@@ -75,6 +75,48 @@
   </si>
   <si>
     <t>test@email.com</t>
+  </si>
+  <si>
+    <t>loginAndCheckoutUsing_DirectBankTransfer</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Tester47</t>
+  </si>
+  <si>
+    <t>Tester@47</t>
+  </si>
+  <si>
+    <t>Tester_FN</t>
+  </si>
+  <si>
+    <t>Tester_LN</t>
+  </si>
+  <si>
+    <t>123 Test Ave</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
@@ -110,12 +152,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,20 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B398099A-6EF6-4F24-B0E8-095A4A909CA5}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -469,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,9 +537,87 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1">
+        <v>600100</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
